--- a/repository/report/2018-2/mix-2018-2.xlsx
+++ b/repository/report/2018-2/mix-2018-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>代码</t>
   </si>
@@ -113,6 +113,204 @@
   </si>
   <si>
     <t>每股现金流量(元)</t>
+  </si>
+  <si>
+    <t>300732</t>
+  </si>
+  <si>
+    <t>002757</t>
+  </si>
+  <si>
+    <t>603639</t>
+  </si>
+  <si>
+    <t>002913</t>
+  </si>
+  <si>
+    <t>600211</t>
+  </si>
+  <si>
+    <t>603458</t>
+  </si>
+  <si>
+    <t>300583</t>
+  </si>
+  <si>
+    <t>603396</t>
+  </si>
+  <si>
+    <t>603579</t>
+  </si>
+  <si>
+    <t>603871</t>
+  </si>
+  <si>
+    <t>300410</t>
+  </si>
+  <si>
+    <t>002912</t>
+  </si>
+  <si>
+    <t>603444</t>
+  </si>
+  <si>
+    <t>603180</t>
+  </si>
+  <si>
+    <t>000661</t>
+  </si>
+  <si>
+    <t>设研院</t>
+  </si>
+  <si>
+    <t>南兴装备</t>
+  </si>
+  <si>
+    <t>海利尔</t>
+  </si>
+  <si>
+    <t>奥士康</t>
+  </si>
+  <si>
+    <t>西藏药业</t>
+  </si>
+  <si>
+    <t>勘设股份</t>
+  </si>
+  <si>
+    <t>赛托生物</t>
+  </si>
+  <si>
+    <t>金辰股份</t>
+  </si>
+  <si>
+    <t>荣泰健康</t>
+  </si>
+  <si>
+    <t>嘉友国际</t>
+  </si>
+  <si>
+    <t>正业科技</t>
+  </si>
+  <si>
+    <t>中新赛克</t>
+  </si>
+  <si>
+    <t>吉比特</t>
+  </si>
+  <si>
+    <t>金牌厨柜</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>建筑施工</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>农药化肥</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
+    <t>中成药</t>
+  </si>
+  <si>
+    <t>生物制药</t>
+  </si>
+  <si>
+    <t>专用机械</t>
+  </si>
+  <si>
+    <t>医疗保健</t>
+  </si>
+  <si>
+    <t>仓储物流</t>
+  </si>
+  <si>
+    <t>电器仪表</t>
+  </si>
+  <si>
+    <t>软件服务</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>08-15</t>
+  </si>
+  <si>
+    <t>08-08</t>
+  </si>
+  <si>
+    <t>08-28</t>
+  </si>
+  <si>
+    <t>08-20</t>
+  </si>
+  <si>
+    <t>08-24</t>
+  </si>
+  <si>
+    <t>08-17</t>
+  </si>
+  <si>
+    <t>08-21</t>
+  </si>
+  <si>
+    <t>08-02</t>
+  </si>
+  <si>
+    <t>08-01</t>
+  </si>
+  <si>
+    <t>08-10</t>
+  </si>
+  <si>
+    <t>08-14</t>
+  </si>
+  <si>
+    <t>08-22</t>
   </si>
 </sst>
 </file>
@@ -470,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,6 +775,1754 @@
         <v>32</v>
       </c>
     </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>18.85</v>
+      </c>
+      <c r="F2">
+        <v>0.32</v>
+      </c>
+      <c r="G2">
+        <v>1.3</v>
+      </c>
+      <c r="H2">
+        <v>230267.8</v>
+      </c>
+      <c r="I2">
+        <v>187031.31</v>
+      </c>
+      <c r="J2">
+        <v>20866.67</v>
+      </c>
+      <c r="K2">
+        <v>95094.27</v>
+      </c>
+      <c r="L2">
+        <v>7.34</v>
+      </c>
+      <c r="M2">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="N2">
+        <v>12.38</v>
+      </c>
+      <c r="O2">
+        <v>2.47</v>
+      </c>
+      <c r="P2">
+        <v>20171212</v>
+      </c>
+      <c r="Q2">
+        <v>48558.53</v>
+      </c>
+      <c r="R2">
+        <v>3.75</v>
+      </c>
+      <c r="S2">
+        <v>12.81</v>
+      </c>
+      <c r="T2">
+        <v>54.75</v>
+      </c>
+      <c r="U2">
+        <v>47.12</v>
+      </c>
+      <c r="V2">
+        <v>26.21</v>
+      </c>
+      <c r="W2">
+        <v>16139</v>
+      </c>
+      <c r="X2">
+        <v>10526.96</v>
+      </c>
+      <c r="Y2">
+        <v>54.75</v>
+      </c>
+      <c r="Z2">
+        <v>6.63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>-35.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>23.7</v>
+      </c>
+      <c r="F3">
+        <v>0.97</v>
+      </c>
+      <c r="G3">
+        <v>1.31</v>
+      </c>
+      <c r="H3">
+        <v>190457.2</v>
+      </c>
+      <c r="I3">
+        <v>76704.8</v>
+      </c>
+      <c r="J3">
+        <v>42197.7</v>
+      </c>
+      <c r="K3">
+        <v>99523.46000000001</v>
+      </c>
+      <c r="L3">
+        <v>7.57</v>
+      </c>
+      <c r="M3">
+        <v>0.67</v>
+      </c>
+      <c r="N3">
+        <v>11.8</v>
+      </c>
+      <c r="O3">
+        <v>2.43</v>
+      </c>
+      <c r="P3">
+        <v>20150527</v>
+      </c>
+      <c r="Q3">
+        <v>41422.67</v>
+      </c>
+      <c r="R3">
+        <v>3.15</v>
+      </c>
+      <c r="S3">
+        <v>58.16</v>
+      </c>
+      <c r="T3">
+        <v>48.28</v>
+      </c>
+      <c r="U3">
+        <v>29.14</v>
+      </c>
+      <c r="V3">
+        <v>14.17</v>
+      </c>
+      <c r="W3">
+        <v>9701</v>
+      </c>
+      <c r="X3">
+        <v>7942.7</v>
+      </c>
+      <c r="Y3">
+        <v>48.28</v>
+      </c>
+      <c r="Z3">
+        <v>8.65</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3">
+        <v>0.67</v>
+      </c>
+      <c r="AF3">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.54</v>
+      </c>
+      <c r="G4">
+        <v>1.69</v>
+      </c>
+      <c r="H4">
+        <v>275694.19</v>
+      </c>
+      <c r="I4">
+        <v>196248.81</v>
+      </c>
+      <c r="J4">
+        <v>32734.15</v>
+      </c>
+      <c r="K4">
+        <v>71022.81</v>
+      </c>
+      <c r="L4">
+        <v>4.19</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>10.75</v>
+      </c>
+      <c r="O4">
+        <v>2.52</v>
+      </c>
+      <c r="P4">
+        <v>20170112</v>
+      </c>
+      <c r="Q4">
+        <v>90928.95</v>
+      </c>
+      <c r="R4">
+        <v>5.37</v>
+      </c>
+      <c r="S4">
+        <v>50.45</v>
+      </c>
+      <c r="T4">
+        <v>62.44</v>
+      </c>
+      <c r="U4">
+        <v>35.71</v>
+      </c>
+      <c r="V4">
+        <v>19.25</v>
+      </c>
+      <c r="W4">
+        <v>13189</v>
+      </c>
+      <c r="X4">
+        <v>24048.72</v>
+      </c>
+      <c r="Y4">
+        <v>62.44</v>
+      </c>
+      <c r="Z4">
+        <v>13.86</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>28.93</v>
+      </c>
+      <c r="F5">
+        <v>0.36</v>
+      </c>
+      <c r="G5">
+        <v>1.47</v>
+      </c>
+      <c r="H5">
+        <v>297414.06</v>
+      </c>
+      <c r="I5">
+        <v>202894.66</v>
+      </c>
+      <c r="J5">
+        <v>89666.22</v>
+      </c>
+      <c r="K5">
+        <v>136023.17</v>
+      </c>
+      <c r="L5">
+        <v>9.24</v>
+      </c>
+      <c r="M5">
+        <v>0.72</v>
+      </c>
+      <c r="N5">
+        <v>14.03</v>
+      </c>
+      <c r="O5">
+        <v>2.89</v>
+      </c>
+      <c r="P5">
+        <v>20171201</v>
+      </c>
+      <c r="Q5">
+        <v>46556.26</v>
+      </c>
+      <c r="R5">
+        <v>3.16</v>
+      </c>
+      <c r="S5">
+        <v>32.95</v>
+      </c>
+      <c r="T5">
+        <v>39.1</v>
+      </c>
+      <c r="U5">
+        <v>22.56</v>
+      </c>
+      <c r="V5">
+        <v>10.16</v>
+      </c>
+      <c r="W5">
+        <v>28763</v>
+      </c>
+      <c r="X5">
+        <v>10326.31</v>
+      </c>
+      <c r="Y5">
+        <v>39.1</v>
+      </c>
+      <c r="Z5">
+        <v>5.15</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5">
+        <v>0.72</v>
+      </c>
+      <c r="AF5">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>19.04</v>
+      </c>
+      <c r="F6">
+        <v>1.46</v>
+      </c>
+      <c r="G6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>236254.05</v>
+      </c>
+      <c r="I6">
+        <v>87259.71000000001</v>
+      </c>
+      <c r="J6">
+        <v>14257.98</v>
+      </c>
+      <c r="K6">
+        <v>140896.94</v>
+      </c>
+      <c r="L6">
+        <v>7.84</v>
+      </c>
+      <c r="M6">
+        <v>0.722</v>
+      </c>
+      <c r="N6">
+        <v>11.81</v>
+      </c>
+      <c r="O6">
+        <v>2.33</v>
+      </c>
+      <c r="P6">
+        <v>19990721</v>
+      </c>
+      <c r="Q6">
+        <v>45539.81</v>
+      </c>
+      <c r="R6">
+        <v>2.54</v>
+      </c>
+      <c r="S6">
+        <v>3.99</v>
+      </c>
+      <c r="T6">
+        <v>122.93</v>
+      </c>
+      <c r="U6">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="V6">
+        <v>28.64</v>
+      </c>
+      <c r="W6">
+        <v>12529</v>
+      </c>
+      <c r="X6">
+        <v>12968.38</v>
+      </c>
+      <c r="Y6">
+        <v>122.93</v>
+      </c>
+      <c r="Z6">
+        <v>6.16</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6">
+        <v>0.72</v>
+      </c>
+      <c r="AF6">
+        <v>94.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>19.04</v>
+      </c>
+      <c r="F7">
+        <v>1.46</v>
+      </c>
+      <c r="G7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
+        <v>236254.05</v>
+      </c>
+      <c r="I7">
+        <v>87259.71000000001</v>
+      </c>
+      <c r="J7">
+        <v>14257.98</v>
+      </c>
+      <c r="K7">
+        <v>140896.94</v>
+      </c>
+      <c r="L7">
+        <v>7.84</v>
+      </c>
+      <c r="M7">
+        <v>0.722</v>
+      </c>
+      <c r="N7">
+        <v>11.81</v>
+      </c>
+      <c r="O7">
+        <v>2.33</v>
+      </c>
+      <c r="P7">
+        <v>19990721</v>
+      </c>
+      <c r="Q7">
+        <v>45539.81</v>
+      </c>
+      <c r="R7">
+        <v>2.54</v>
+      </c>
+      <c r="S7">
+        <v>3.99</v>
+      </c>
+      <c r="T7">
+        <v>122.93</v>
+      </c>
+      <c r="U7">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="V7">
+        <v>28.64</v>
+      </c>
+      <c r="W7">
+        <v>12529</v>
+      </c>
+      <c r="X7">
+        <v>12968.38</v>
+      </c>
+      <c r="Y7">
+        <v>122.93</v>
+      </c>
+      <c r="Z7">
+        <v>6.16</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7">
+        <v>0.72</v>
+      </c>
+      <c r="AF7">
+        <v>94.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>11.73</v>
+      </c>
+      <c r="F8">
+        <v>0.85</v>
+      </c>
+      <c r="G8">
+        <v>1.24</v>
+      </c>
+      <c r="H8">
+        <v>353428.69</v>
+      </c>
+      <c r="I8">
+        <v>295685.97</v>
+      </c>
+      <c r="J8">
+        <v>29490.98</v>
+      </c>
+      <c r="K8">
+        <v>81255.53</v>
+      </c>
+      <c r="L8">
+        <v>6.54</v>
+      </c>
+      <c r="M8">
+        <v>1.393</v>
+      </c>
+      <c r="N8">
+        <v>16.37</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>20170809</v>
+      </c>
+      <c r="Q8">
+        <v>99131.52</v>
+      </c>
+      <c r="R8">
+        <v>7.98</v>
+      </c>
+      <c r="S8">
+        <v>26.93</v>
+      </c>
+      <c r="T8">
+        <v>18.35</v>
+      </c>
+      <c r="U8">
+        <v>35.49</v>
+      </c>
+      <c r="V8">
+        <v>17.34</v>
+      </c>
+      <c r="W8">
+        <v>16658</v>
+      </c>
+      <c r="X8">
+        <v>17294.91</v>
+      </c>
+      <c r="Y8">
+        <v>18.35</v>
+      </c>
+      <c r="Z8">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8">
+        <v>1.39</v>
+      </c>
+      <c r="AF8">
+        <v>-11.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>23.48</v>
+      </c>
+      <c r="F9">
+        <v>0.34</v>
+      </c>
+      <c r="G9">
+        <v>1.08</v>
+      </c>
+      <c r="H9">
+        <v>229789.16</v>
+      </c>
+      <c r="I9">
+        <v>152179.8</v>
+      </c>
+      <c r="J9">
+        <v>50625.62</v>
+      </c>
+      <c r="K9">
+        <v>116242.17</v>
+      </c>
+      <c r="L9">
+        <v>10.76</v>
+      </c>
+      <c r="M9">
+        <v>0.648</v>
+      </c>
+      <c r="N9">
+        <v>16.24</v>
+      </c>
+      <c r="O9">
+        <v>1.87</v>
+      </c>
+      <c r="P9">
+        <v>20170106</v>
+      </c>
+      <c r="Q9">
+        <v>46491.96</v>
+      </c>
+      <c r="R9">
+        <v>4.31</v>
+      </c>
+      <c r="S9">
+        <v>83.31999999999999</v>
+      </c>
+      <c r="T9">
+        <v>150.51</v>
+      </c>
+      <c r="U9">
+        <v>28.38</v>
+      </c>
+      <c r="V9">
+        <v>12.48</v>
+      </c>
+      <c r="W9">
+        <v>16388</v>
+      </c>
+      <c r="X9">
+        <v>6995.52</v>
+      </c>
+      <c r="Y9">
+        <v>150.51</v>
+      </c>
+      <c r="Z9">
+        <v>4.05</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE9">
+        <v>0.65</v>
+      </c>
+      <c r="AF9">
+        <v>137.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>23.48</v>
+      </c>
+      <c r="F10">
+        <v>0.34</v>
+      </c>
+      <c r="G10">
+        <v>1.08</v>
+      </c>
+      <c r="H10">
+        <v>229789.16</v>
+      </c>
+      <c r="I10">
+        <v>152179.8</v>
+      </c>
+      <c r="J10">
+        <v>50625.62</v>
+      </c>
+      <c r="K10">
+        <v>116242.17</v>
+      </c>
+      <c r="L10">
+        <v>10.76</v>
+      </c>
+      <c r="M10">
+        <v>0.648</v>
+      </c>
+      <c r="N10">
+        <v>16.24</v>
+      </c>
+      <c r="O10">
+        <v>1.87</v>
+      </c>
+      <c r="P10">
+        <v>20170106</v>
+      </c>
+      <c r="Q10">
+        <v>46491.96</v>
+      </c>
+      <c r="R10">
+        <v>4.31</v>
+      </c>
+      <c r="S10">
+        <v>83.31999999999999</v>
+      </c>
+      <c r="T10">
+        <v>150.51</v>
+      </c>
+      <c r="U10">
+        <v>28.38</v>
+      </c>
+      <c r="V10">
+        <v>12.48</v>
+      </c>
+      <c r="W10">
+        <v>16388</v>
+      </c>
+      <c r="X10">
+        <v>6995.52</v>
+      </c>
+      <c r="Y10">
+        <v>150.51</v>
+      </c>
+      <c r="Z10">
+        <v>4.05</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10">
+        <v>0.65</v>
+      </c>
+      <c r="AF10">
+        <v>137.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>20.92</v>
+      </c>
+      <c r="F11">
+        <v>0.19</v>
+      </c>
+      <c r="G11">
+        <v>0.76</v>
+      </c>
+      <c r="H11">
+        <v>166431.23</v>
+      </c>
+      <c r="I11">
+        <v>142606.11</v>
+      </c>
+      <c r="J11">
+        <v>15622.67</v>
+      </c>
+      <c r="K11">
+        <v>45521.01</v>
+      </c>
+      <c r="L11">
+        <v>6.02</v>
+      </c>
+      <c r="M11">
+        <v>0.598</v>
+      </c>
+      <c r="N11">
+        <v>11.23</v>
+      </c>
+      <c r="O11">
+        <v>2.23</v>
+      </c>
+      <c r="P11">
+        <v>20171018</v>
+      </c>
+      <c r="Q11">
+        <v>28584.34</v>
+      </c>
+      <c r="R11">
+        <v>3.78</v>
+      </c>
+      <c r="S11">
+        <v>22.87</v>
+      </c>
+      <c r="T11">
+        <v>26.55</v>
+      </c>
+      <c r="U11">
+        <v>37.34</v>
+      </c>
+      <c r="V11">
+        <v>12.64</v>
+      </c>
+      <c r="W11">
+        <v>10936</v>
+      </c>
+      <c r="X11">
+        <v>4514.69</v>
+      </c>
+      <c r="Y11">
+        <v>26.55</v>
+      </c>
+      <c r="Z11">
+        <v>5.32</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11">
+        <v>0.6</v>
+      </c>
+      <c r="AF11">
+        <v>-5.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>18.28</v>
+      </c>
+      <c r="F12">
+        <v>0.51</v>
+      </c>
+      <c r="G12">
+        <v>1.4</v>
+      </c>
+      <c r="H12">
+        <v>233564.92</v>
+      </c>
+      <c r="I12">
+        <v>177641.16</v>
+      </c>
+      <c r="J12">
+        <v>38061.28</v>
+      </c>
+      <c r="K12">
+        <v>73140.72</v>
+      </c>
+      <c r="L12">
+        <v>5.22</v>
+      </c>
+      <c r="M12">
+        <v>1.009</v>
+      </c>
+      <c r="N12">
+        <v>10.22</v>
+      </c>
+      <c r="O12">
+        <v>3.61</v>
+      </c>
+      <c r="P12">
+        <v>20170111</v>
+      </c>
+      <c r="Q12">
+        <v>51054.98</v>
+      </c>
+      <c r="R12">
+        <v>3.65</v>
+      </c>
+      <c r="S12">
+        <v>50.41</v>
+      </c>
+      <c r="T12">
+        <v>27.03</v>
+      </c>
+      <c r="U12">
+        <v>34.23</v>
+      </c>
+      <c r="V12">
+        <v>11.43</v>
+      </c>
+      <c r="W12">
+        <v>4386</v>
+      </c>
+      <c r="X12">
+        <v>14132.46</v>
+      </c>
+      <c r="Y12">
+        <v>27.03</v>
+      </c>
+      <c r="Z12">
+        <v>10.07</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12">
+        <v>1.01</v>
+      </c>
+      <c r="AF12">
+        <v>-39.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>13.66</v>
+      </c>
+      <c r="F13">
+        <v>0.28</v>
+      </c>
+      <c r="G13">
+        <v>1.12</v>
+      </c>
+      <c r="H13">
+        <v>196272.38</v>
+      </c>
+      <c r="I13">
+        <v>164192.67</v>
+      </c>
+      <c r="J13">
+        <v>13408.67</v>
+      </c>
+      <c r="K13">
+        <v>85768.56</v>
+      </c>
+      <c r="L13">
+        <v>7.66</v>
+      </c>
+      <c r="M13">
+        <v>1.33</v>
+      </c>
+      <c r="N13">
+        <v>12.92</v>
+      </c>
+      <c r="O13">
+        <v>2.64</v>
+      </c>
+      <c r="P13">
+        <v>20180206</v>
+      </c>
+      <c r="Q13">
+        <v>44796.37</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>32.13</v>
+      </c>
+      <c r="T13">
+        <v>23.21</v>
+      </c>
+      <c r="U13">
+        <v>9.74</v>
+      </c>
+      <c r="V13">
+        <v>7.38</v>
+      </c>
+      <c r="W13">
+        <v>13213</v>
+      </c>
+      <c r="X13">
+        <v>13965.36</v>
+      </c>
+      <c r="Y13">
+        <v>23.21</v>
+      </c>
+      <c r="Z13">
+        <v>12.05</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE13">
+        <v>1.33</v>
+      </c>
+      <c r="AF13">
+        <v>-29.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>13.66</v>
+      </c>
+      <c r="F14">
+        <v>0.28</v>
+      </c>
+      <c r="G14">
+        <v>1.12</v>
+      </c>
+      <c r="H14">
+        <v>196272.38</v>
+      </c>
+      <c r="I14">
+        <v>164192.67</v>
+      </c>
+      <c r="J14">
+        <v>13408.67</v>
+      </c>
+      <c r="K14">
+        <v>85768.56</v>
+      </c>
+      <c r="L14">
+        <v>7.66</v>
+      </c>
+      <c r="M14">
+        <v>1.33</v>
+      </c>
+      <c r="N14">
+        <v>12.92</v>
+      </c>
+      <c r="O14">
+        <v>2.64</v>
+      </c>
+      <c r="P14">
+        <v>20180206</v>
+      </c>
+      <c r="Q14">
+        <v>44796.37</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>32.13</v>
+      </c>
+      <c r="T14">
+        <v>23.21</v>
+      </c>
+      <c r="U14">
+        <v>9.74</v>
+      </c>
+      <c r="V14">
+        <v>7.38</v>
+      </c>
+      <c r="W14">
+        <v>13213</v>
+      </c>
+      <c r="X14">
+        <v>13965.36</v>
+      </c>
+      <c r="Y14">
+        <v>23.21</v>
+      </c>
+      <c r="Z14">
+        <v>12.05</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE14">
+        <v>1.33</v>
+      </c>
+      <c r="AF14">
+        <v>-29.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>16.71</v>
+      </c>
+      <c r="F15">
+        <v>1.84</v>
+      </c>
+      <c r="G15">
+        <v>1.96</v>
+      </c>
+      <c r="H15">
+        <v>324515.34</v>
+      </c>
+      <c r="I15">
+        <v>177463.02</v>
+      </c>
+      <c r="J15">
+        <v>15526.94</v>
+      </c>
+      <c r="K15">
+        <v>139833.25</v>
+      </c>
+      <c r="L15">
+        <v>7.13</v>
+      </c>
+      <c r="M15">
+        <v>0.586</v>
+      </c>
+      <c r="N15">
+        <v>10.76</v>
+      </c>
+      <c r="O15">
+        <v>1.82</v>
+      </c>
+      <c r="P15">
+        <v>20141231</v>
+      </c>
+      <c r="Q15">
+        <v>52674.8</v>
+      </c>
+      <c r="R15">
+        <v>2.69</v>
+      </c>
+      <c r="S15">
+        <v>28.07</v>
+      </c>
+      <c r="T15">
+        <v>40.47</v>
+      </c>
+      <c r="U15">
+        <v>40.66</v>
+      </c>
+      <c r="V15">
+        <v>16.48</v>
+      </c>
+      <c r="W15">
+        <v>11893</v>
+      </c>
+      <c r="X15">
+        <v>11478.37</v>
+      </c>
+      <c r="Y15">
+        <v>40.47</v>
+      </c>
+      <c r="Z15">
+        <v>5.52</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15">
+        <v>0.59</v>
+      </c>
+      <c r="AF15">
+        <v>34.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>62.07</v>
+      </c>
+      <c r="F16">
+        <v>0.27</v>
+      </c>
+      <c r="G16">
+        <v>1.07</v>
+      </c>
+      <c r="H16">
+        <v>166893.48</v>
+      </c>
+      <c r="I16">
+        <v>145318.7</v>
+      </c>
+      <c r="J16">
+        <v>5886.3</v>
+      </c>
+      <c r="K16">
+        <v>53851.13</v>
+      </c>
+      <c r="L16">
+        <v>5.05</v>
+      </c>
+      <c r="M16">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="N16">
+        <v>10.79</v>
+      </c>
+      <c r="O16">
+        <v>6.7</v>
+      </c>
+      <c r="P16">
+        <v>20171121</v>
+      </c>
+      <c r="Q16">
+        <v>48555.53</v>
+      </c>
+      <c r="R16">
+        <v>4.55</v>
+      </c>
+      <c r="S16">
+        <v>61.37</v>
+      </c>
+      <c r="T16">
+        <v>73.11</v>
+      </c>
+      <c r="U16">
+        <v>80.5</v>
+      </c>
+      <c r="V16">
+        <v>23.44</v>
+      </c>
+      <c r="W16">
+        <v>10760</v>
+      </c>
+      <c r="X16">
+        <v>6209.54</v>
+      </c>
+      <c r="Y16">
+        <v>73.11</v>
+      </c>
+      <c r="Z16">
+        <v>5.38</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE16">
+        <v>0.58</v>
+      </c>
+      <c r="AF16">
+        <v>-19.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>62.07</v>
+      </c>
+      <c r="F17">
+        <v>0.27</v>
+      </c>
+      <c r="G17">
+        <v>1.07</v>
+      </c>
+      <c r="H17">
+        <v>166893.48</v>
+      </c>
+      <c r="I17">
+        <v>145318.7</v>
+      </c>
+      <c r="J17">
+        <v>5886.3</v>
+      </c>
+      <c r="K17">
+        <v>53851.13</v>
+      </c>
+      <c r="L17">
+        <v>5.05</v>
+      </c>
+      <c r="M17">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="N17">
+        <v>10.79</v>
+      </c>
+      <c r="O17">
+        <v>6.7</v>
+      </c>
+      <c r="P17">
+        <v>20171121</v>
+      </c>
+      <c r="Q17">
+        <v>48555.53</v>
+      </c>
+      <c r="R17">
+        <v>4.55</v>
+      </c>
+      <c r="S17">
+        <v>61.37</v>
+      </c>
+      <c r="T17">
+        <v>73.11</v>
+      </c>
+      <c r="U17">
+        <v>80.5</v>
+      </c>
+      <c r="V17">
+        <v>23.44</v>
+      </c>
+      <c r="W17">
+        <v>10760</v>
+      </c>
+      <c r="X17">
+        <v>6209.54</v>
+      </c>
+      <c r="Y17">
+        <v>73.11</v>
+      </c>
+      <c r="Z17">
+        <v>5.38</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17">
+        <v>0.58</v>
+      </c>
+      <c r="AF17">
+        <v>-19.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>10.96</v>
+      </c>
+      <c r="F18">
+        <v>0.41</v>
+      </c>
+      <c r="G18">
+        <v>0.72</v>
+      </c>
+      <c r="H18">
+        <v>335890.31</v>
+      </c>
+      <c r="I18">
+        <v>243464.95</v>
+      </c>
+      <c r="J18">
+        <v>3111.15</v>
+      </c>
+      <c r="K18">
+        <v>105828</v>
+      </c>
+      <c r="L18">
+        <v>14.72</v>
+      </c>
+      <c r="M18">
+        <v>4.68</v>
+      </c>
+      <c r="N18">
+        <v>34.78</v>
+      </c>
+      <c r="O18">
+        <v>2.94</v>
+      </c>
+      <c r="P18">
+        <v>20170104</v>
+      </c>
+      <c r="Q18">
+        <v>139086.88</v>
+      </c>
+      <c r="R18">
+        <v>19.35</v>
+      </c>
+      <c r="S18">
+        <v>7.95</v>
+      </c>
+      <c r="T18">
+        <v>11.91</v>
+      </c>
+      <c r="U18">
+        <v>91.31999999999999</v>
+      </c>
+      <c r="V18">
+        <v>43.08</v>
+      </c>
+      <c r="W18">
+        <v>19091</v>
+      </c>
+      <c r="X18">
+        <v>33499.59</v>
+      </c>
+      <c r="Y18">
+        <v>11.91</v>
+      </c>
+      <c r="Z18">
+        <v>13.8</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE18">
+        <v>4.68</v>
+      </c>
+      <c r="AF18">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>27.65</v>
+      </c>
+      <c r="F19">
+        <v>0.18</v>
+      </c>
+      <c r="G19">
+        <v>0.68</v>
+      </c>
+      <c r="H19">
+        <v>157753.38</v>
+      </c>
+      <c r="I19">
+        <v>81000.86</v>
+      </c>
+      <c r="J19">
+        <v>49256.03</v>
+      </c>
+      <c r="K19">
+        <v>47996.25</v>
+      </c>
+      <c r="L19">
+        <v>7.11</v>
+      </c>
+      <c r="M19">
+        <v>0.9079999999999999</v>
+      </c>
+      <c r="N19">
+        <v>12.86</v>
+      </c>
+      <c r="O19">
+        <v>3.91</v>
+      </c>
+      <c r="P19">
+        <v>20170512</v>
+      </c>
+      <c r="Q19">
+        <v>31631.86</v>
+      </c>
+      <c r="R19">
+        <v>4.69</v>
+      </c>
+      <c r="S19">
+        <v>15.12</v>
+      </c>
+      <c r="T19">
+        <v>32.53</v>
+      </c>
+      <c r="U19">
+        <v>39.7</v>
+      </c>
+      <c r="V19">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="W19">
+        <v>12030</v>
+      </c>
+      <c r="X19">
+        <v>6129.81</v>
+      </c>
+      <c r="Y19">
+        <v>32.53</v>
+      </c>
+      <c r="Z19">
+        <v>6.71</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19">
+        <v>0.91</v>
+      </c>
+      <c r="AF19">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>31.47</v>
+      </c>
+      <c r="F20">
+        <v>1.7</v>
+      </c>
+      <c r="G20">
+        <v>1.7</v>
+      </c>
+      <c r="H20">
+        <v>806365.3100000001</v>
+      </c>
+      <c r="I20">
+        <v>578719.4399999999</v>
+      </c>
+      <c r="J20">
+        <v>110444.76</v>
+      </c>
+      <c r="K20">
+        <v>196590</v>
+      </c>
+      <c r="L20">
+        <v>11.56</v>
+      </c>
+      <c r="M20">
+        <v>3.221</v>
+      </c>
+      <c r="N20">
+        <v>28.43</v>
+      </c>
+      <c r="O20">
+        <v>7.13</v>
+      </c>
+      <c r="P20">
+        <v>19961218</v>
+      </c>
+      <c r="Q20">
+        <v>235708.22</v>
+      </c>
+      <c r="R20">
+        <v>13.86</v>
+      </c>
+      <c r="S20">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="T20">
+        <v>92.93000000000001</v>
+      </c>
+      <c r="U20">
+        <v>84.05</v>
+      </c>
+      <c r="V20">
+        <v>19.93</v>
+      </c>
+      <c r="W20">
+        <v>16834</v>
+      </c>
+      <c r="X20">
+        <v>54798.85</v>
+      </c>
+      <c r="Y20">
+        <v>92.93000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>11.83</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20">
+        <v>3.22</v>
+      </c>
+      <c r="AF20">
+        <v>92.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
